--- a/diabetes/prevalence/Ohio.xlsx
+++ b/diabetes/prevalence/Ohio.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cdc.gov\project\CCHP_NCCD_DDT_Data1\epistat\KAK\Single map county data by state\DMPREV2013\compliance\compliance2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosabreu/Desktop/analise_de_midias/diabetes/prevalence/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE88EAD-56DF-1947-80B3-9790548FDB11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11385"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25200" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_Ohio" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,19 @@
   <definedNames>
     <definedName name="IDX" localSheetId="0">data_Ohio!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="196">
   <si>
     <t>Diagnosed Diabetes Prevalence</t>
   </si>
@@ -587,11 +595,35 @@
   <si>
     <t>Wyandot County</t>
   </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>Número Total de casos</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Média (Lower)</t>
+  </si>
+  <si>
+    <t>Média(Upper</t>
+  </si>
+  <si>
+    <t>Numero de pessoas</t>
+  </si>
+  <si>
+    <t>Numero L</t>
+  </si>
+  <si>
+    <t>Numero H</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\_x0000_.0"/>
   </numFmts>
@@ -1302,7 +1334,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1355,6 +1387,9 @@
     <xf numFmtId="164" fontId="23" fillId="35" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1370,52 +1405,55 @@
     <xf numFmtId="0" fontId="21" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hiperlink" xfId="42" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="43" builtinId="9" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1692,189 +1730,215 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:BU92"/>
+  <dimension ref="A2:CD92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BR1" workbookViewId="0">
+      <selection activeCell="BW3" sqref="BW3:CD13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.1640625" style="1" customWidth="1"/>
     <col min="19" max="19" width="8" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.1640625" style="1" customWidth="1"/>
     <col min="26" max="26" width="8" style="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.140625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.1640625" style="1" customWidth="1"/>
     <col min="33" max="33" width="8" style="1" customWidth="1"/>
-    <col min="34" max="34" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.140625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.1640625" style="1" customWidth="1"/>
     <col min="40" max="40" width="8" style="1" customWidth="1"/>
-    <col min="41" max="41" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.140625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.1640625" style="1" customWidth="1"/>
     <col min="47" max="47" width="8" style="1" customWidth="1"/>
-    <col min="48" max="48" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.140625" style="1" customWidth="1"/>
+    <col min="52" max="52" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.1640625" style="1" customWidth="1"/>
     <col min="54" max="54" width="8" style="1" customWidth="1"/>
-    <col min="55" max="55" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.140625" style="1" customWidth="1"/>
+    <col min="59" max="59" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="8.1640625" style="1" customWidth="1"/>
     <col min="61" max="61" width="8" style="1" customWidth="1"/>
-    <col min="62" max="62" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="8.140625" style="1" customWidth="1"/>
+    <col min="66" max="66" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="8.1640625" style="1" customWidth="1"/>
     <col min="68" max="68" width="8" style="1" customWidth="1"/>
-    <col min="69" max="69" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="16384" width="9.140625" style="1"/>
+    <col min="73" max="73" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:73" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:73" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+    <row r="2" spans="1:82" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:82" ht="18" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="18">
+      <c r="D3" s="19">
         <v>2004</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="18">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="19">
         <v>2005</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="18">
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="19">
         <v>2006</v>
       </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="18">
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="19">
         <v>2007</v>
       </c>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="18">
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="19">
         <v>2008</v>
       </c>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="18">
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="19">
         <v>2009</v>
       </c>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="20"/>
-      <c r="AT3" s="18">
+      <c r="AN3" s="20"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="21"/>
+      <c r="AT3" s="19">
         <v>2010</v>
       </c>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="20"/>
-      <c r="BA3" s="18">
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="20"/>
+      <c r="AW3" s="20"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="21"/>
+      <c r="BA3" s="19">
         <v>2011</v>
       </c>
-      <c r="BB3" s="19"/>
-      <c r="BC3" s="19"/>
-      <c r="BD3" s="19"/>
-      <c r="BE3" s="19"/>
-      <c r="BF3" s="19"/>
-      <c r="BG3" s="20"/>
-      <c r="BH3" s="18">
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="20"/>
+      <c r="BF3" s="20"/>
+      <c r="BG3" s="21"/>
+      <c r="BH3" s="19">
         <v>2012</v>
       </c>
-      <c r="BI3" s="19"/>
-      <c r="BJ3" s="19"/>
-      <c r="BK3" s="19"/>
-      <c r="BL3" s="19"/>
-      <c r="BM3" s="19"/>
-      <c r="BN3" s="20"/>
-      <c r="BO3" s="18">
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="20"/>
+      <c r="BL3" s="20"/>
+      <c r="BM3" s="20"/>
+      <c r="BN3" s="21"/>
+      <c r="BO3" s="19">
         <v>2013</v>
       </c>
-      <c r="BP3" s="19"/>
-      <c r="BQ3" s="19"/>
-      <c r="BR3" s="19"/>
-      <c r="BS3" s="19"/>
-      <c r="BT3" s="19"/>
-      <c r="BU3" s="22"/>
+      <c r="BP3" s="20"/>
+      <c r="BQ3" s="20"/>
+      <c r="BR3" s="20"/>
+      <c r="BS3" s="20"/>
+      <c r="BT3" s="20"/>
+      <c r="BU3" s="23"/>
+      <c r="BW3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
-    <row r="4" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -2094,8 +2158,39 @@
       <c r="BU4" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="BW4" s="1">
+        <v>2004</v>
+      </c>
+      <c r="BX4" s="18">
+        <f>SUM(D5:D300)</f>
+        <v>729236</v>
+      </c>
+      <c r="BY4" s="18">
+        <f>AVERAGE(E5:E300)</f>
+        <v>8.5545454545454547</v>
+      </c>
+      <c r="BZ4" s="18">
+        <f>AVERAGE(F5:F300)</f>
+        <v>6.8534090909090937</v>
+      </c>
+      <c r="CA4" s="18">
+        <f>AVERAGE(G5:G300)</f>
+        <v>10.627272727272727</v>
+      </c>
+      <c r="CB4" s="24">
+        <f>BX4*100/BY4</f>
+        <v>8524544.1020191293</v>
+      </c>
+      <c r="CC4" s="1">
+        <f>BZ4/100*CB4</f>
+        <v>584221.8804463339</v>
+      </c>
+      <c r="CD4" s="1">
+        <f>CA4/100*CB4</f>
+        <v>905926.55047821475</v>
+      </c>
     </row>
-    <row r="5" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -2315,8 +2410,39 @@
       <c r="BU5" s="11">
         <v>13.1</v>
       </c>
+      <c r="BW5" s="1">
+        <v>2005</v>
+      </c>
+      <c r="BX5" s="1">
+        <f>SUM(K5:K300)</f>
+        <v>725817</v>
+      </c>
+      <c r="BY5" s="18">
+        <f>AVERAGE(L5:L300)</f>
+        <v>8.4488636363636385</v>
+      </c>
+      <c r="BZ5" s="18">
+        <f>AVERAGE(M5:M300)</f>
+        <v>6.5590909090909095</v>
+      </c>
+      <c r="CA5" s="18">
+        <f>AVERAGE(N5:N300)</f>
+        <v>10.830681818181821</v>
+      </c>
+      <c r="CB5" s="24">
+        <f t="shared" ref="CB5:CB13" si="0">BX5*100/BY5</f>
+        <v>8590705.5817081351</v>
+      </c>
+      <c r="CC5" s="1">
+        <f t="shared" ref="CC5:CC13" si="1">BZ5/100*CB5</f>
+        <v>563472.18883658352</v>
+      </c>
+      <c r="CD5" s="1">
+        <f t="shared" ref="CD5:CD13" si="2">CA5/100*CB5</f>
+        <v>930431.98749159381</v>
+      </c>
     </row>
-    <row r="6" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
@@ -2536,8 +2662,39 @@
       <c r="BU6" s="11">
         <v>13.5</v>
       </c>
+      <c r="BW6" s="1">
+        <v>2006</v>
+      </c>
+      <c r="BX6" s="18">
+        <f>SUM(R5:R300)</f>
+        <v>809104</v>
+      </c>
+      <c r="BY6" s="18">
+        <f>AVERAGE(S5:S300)</f>
+        <v>9.627272727272727</v>
+      </c>
+      <c r="BZ6" s="18">
+        <f>AVERAGE(T5:T300)</f>
+        <v>7.7806818181818178</v>
+      </c>
+      <c r="CA6" s="18">
+        <f>AVERAGE(U5:U300)</f>
+        <v>11.878409090909088</v>
+      </c>
+      <c r="CB6" s="24">
+        <f t="shared" si="0"/>
+        <v>8404290.8404154871</v>
+      </c>
+      <c r="CC6" s="1">
+        <f t="shared" si="1"/>
+        <v>653911.12936732767</v>
+      </c>
+      <c r="CD6" s="1">
+        <f t="shared" si="2"/>
+        <v>998296.04721435299</v>
+      </c>
     </row>
-    <row r="7" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
@@ -2757,8 +2914,39 @@
       <c r="BU7" s="11">
         <v>13.2</v>
       </c>
+      <c r="BW7" s="1">
+        <v>2007</v>
+      </c>
+      <c r="BX7" s="18">
+        <f>SUM(Y5:Y300)</f>
+        <v>859213.7</v>
+      </c>
+      <c r="BY7" s="18">
+        <f>AVERAGE(Z5:Z300)</f>
+        <v>10.255681818181813</v>
+      </c>
+      <c r="BZ7" s="18">
+        <f>AVERAGE(AA5:AA300)</f>
+        <v>8.2784090909090953</v>
+      </c>
+      <c r="CA7" s="18">
+        <f>AVERAGE(AB5:AB300)</f>
+        <v>12.602272727272737</v>
+      </c>
+      <c r="CB7" s="24">
+        <f t="shared" si="0"/>
+        <v>8377928.5983379539</v>
+      </c>
+      <c r="CC7" s="1">
+        <f t="shared" si="1"/>
+        <v>693559.20271468209</v>
+      </c>
+      <c r="CD7" s="1">
+        <f t="shared" si="2"/>
+        <v>1055809.4108587271</v>
+      </c>
     </row>
-    <row r="8" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
@@ -2978,8 +3166,39 @@
       <c r="BU8" s="11">
         <v>14.3</v>
       </c>
+      <c r="BW8" s="1">
+        <v>2008</v>
+      </c>
+      <c r="BX8" s="1">
+        <f>SUM(AF5:AF300)</f>
+        <v>900998</v>
+      </c>
+      <c r="BY8" s="18">
+        <f>AVERAGE(AG5:AG300)</f>
+        <v>10.69090909090909</v>
+      </c>
+      <c r="BZ8" s="18">
+        <f>AVERAGE(AH5:AH300)</f>
+        <v>8.788636363636364</v>
+      </c>
+      <c r="CA8" s="18">
+        <f>AVERAGE(AI5:AI300)</f>
+        <v>12.9</v>
+      </c>
+      <c r="CB8" s="24">
+        <f t="shared" si="0"/>
+        <v>8427702.3809523825</v>
+      </c>
+      <c r="CC8" s="1">
+        <f t="shared" si="1"/>
+        <v>740680.11607142875</v>
+      </c>
+      <c r="CD8" s="1">
+        <f t="shared" si="2"/>
+        <v>1087173.6071428573</v>
+      </c>
     </row>
-    <row r="9" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
@@ -3199,8 +3418,39 @@
       <c r="BU9" s="11">
         <v>14.3</v>
       </c>
+      <c r="BW9" s="1">
+        <v>2009</v>
+      </c>
+      <c r="BX9" s="18">
+        <f>SUM(AM5:AM300)</f>
+        <v>913695</v>
+      </c>
+      <c r="BY9" s="18">
+        <f>AVERAGE(AN5:AN300)</f>
+        <v>10.988636363636363</v>
+      </c>
+      <c r="BZ9" s="18">
+        <f>AVERAGE(AO5:AO300)</f>
+        <v>8.6147727272727295</v>
+      </c>
+      <c r="CA9" s="18">
+        <f>AVERAGE(AP5:AP300)</f>
+        <v>13.747727272727275</v>
+      </c>
+      <c r="CB9" s="24">
+        <f t="shared" si="0"/>
+        <v>8314907.9627714586</v>
+      </c>
+      <c r="CC9" s="1">
+        <f t="shared" si="1"/>
+        <v>716310.4234746641</v>
+      </c>
+      <c r="CD9" s="1">
+        <f t="shared" si="2"/>
+        <v>1143110.8697001038</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -3420,8 +3670,39 @@
       <c r="BU10" s="11">
         <v>11.6</v>
       </c>
+      <c r="BW10" s="1">
+        <v>2010</v>
+      </c>
+      <c r="BX10" s="18">
+        <f>SUM(AT5:AT300)</f>
+        <v>919017</v>
+      </c>
+      <c r="BY10" s="18">
+        <f>AVERAGE(AU5:AU6300)</f>
+        <v>11.155681818181817</v>
+      </c>
+      <c r="BZ10" s="18">
+        <f>AVERAGE(AV5:AV6300)</f>
+        <v>8.6397727272727298</v>
+      </c>
+      <c r="CA10" s="18">
+        <f>AVERAGE(AW5:AW6300)</f>
+        <v>14.106818181818181</v>
+      </c>
+      <c r="CB10" s="24">
+        <f t="shared" si="0"/>
+        <v>8238106.9573189374</v>
+      </c>
+      <c r="CC10" s="1">
+        <f t="shared" si="1"/>
+        <v>711753.71814199886</v>
+      </c>
+      <c r="CD10" s="1">
+        <f t="shared" si="2"/>
+        <v>1162134.7700926964</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
@@ -3641,8 +3922,39 @@
       <c r="BU11" s="11">
         <v>14.9</v>
       </c>
+      <c r="BW11" s="1">
+        <v>2011</v>
+      </c>
+      <c r="BX11" s="1">
+        <f>SUM(BA5:BA300)</f>
+        <v>956540</v>
+      </c>
+      <c r="BY11" s="18">
+        <f>AVERAGE(BB5:BB300)</f>
+        <v>11.687499999999998</v>
+      </c>
+      <c r="BZ11" s="18">
+        <f>AVERAGE(BC5:BC300)</f>
+        <v>9.1454545454545428</v>
+      </c>
+      <c r="CA11" s="18">
+        <f>AVERAGE(BD5:BD300)</f>
+        <v>14.657954545454544</v>
+      </c>
+      <c r="CB11" s="24">
+        <f t="shared" si="0"/>
+        <v>8184299.4652406434</v>
+      </c>
+      <c r="CC11" s="1">
+        <f t="shared" si="1"/>
+        <v>748491.38745746226</v>
+      </c>
+      <c r="CD11" s="1">
+        <f t="shared" si="2"/>
+        <v>1199650.8954788528</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -3862,8 +4174,39 @@
       <c r="BU12" s="11">
         <v>15</v>
       </c>
+      <c r="BW12" s="1">
+        <v>2012</v>
+      </c>
+      <c r="BX12" s="18">
+        <f>SUM(BH5:BH300)</f>
+        <v>970840</v>
+      </c>
+      <c r="BY12" s="18">
+        <f>AVERAGE(BI5:BI300)</f>
+        <v>11.984090909090908</v>
+      </c>
+      <c r="BZ12" s="18">
+        <f>AVERAGE(BJ5:BJ300)</f>
+        <v>9.4795454545454536</v>
+      </c>
+      <c r="CA12" s="18">
+        <f>AVERAGE(BK5:BK300)</f>
+        <v>14.879545454545461</v>
+      </c>
+      <c r="CB12" s="24">
+        <f t="shared" si="0"/>
+        <v>8101073.3927555485</v>
+      </c>
+      <c r="CC12" s="1">
+        <f t="shared" si="1"/>
+        <v>767944.93457234965</v>
+      </c>
+      <c r="CD12" s="1">
+        <f t="shared" si="2"/>
+        <v>1205402.8977811499</v>
+      </c>
     </row>
-    <row r="13" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -4083,8 +4426,39 @@
       <c r="BU13" s="11">
         <v>13.1</v>
       </c>
+      <c r="BW13" s="1">
+        <v>2013</v>
+      </c>
+      <c r="BX13" s="18">
+        <f>SUM(BO5:BO300)</f>
+        <v>1007174</v>
+      </c>
+      <c r="BY13" s="18">
+        <f>AVERAGE(BP6:BP300)</f>
+        <v>12.442528735632182</v>
+      </c>
+      <c r="BZ13" s="18">
+        <f>AVERAGE(BQ6:BQ300)</f>
+        <v>9.9275862068965512</v>
+      </c>
+      <c r="CA13" s="18">
+        <f>AVERAGE(BR6:BR300)</f>
+        <v>15.304597701149422</v>
+      </c>
+      <c r="CB13" s="24">
+        <f t="shared" si="0"/>
+        <v>8094608.5912240194</v>
+      </c>
+      <c r="CC13" s="1">
+        <f t="shared" si="1"/>
+        <v>803599.24600461894</v>
+      </c>
+      <c r="CD13" s="1">
+        <f t="shared" si="2"/>
+        <v>1238847.2803695148</v>
+      </c>
     </row>
-    <row r="14" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -4305,7 +4679,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="15" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>11</v>
       </c>
@@ -4526,7 +4900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
@@ -4747,7 +5121,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="17" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>11</v>
       </c>
@@ -4968,7 +5342,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="18" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
         <v>11</v>
       </c>
@@ -5189,7 +5563,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="19" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
         <v>11</v>
       </c>
@@ -5410,7 +5784,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="20" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
         <v>11</v>
       </c>
@@ -5631,7 +6005,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="21" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>11</v>
       </c>
@@ -5852,7 +6226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>11</v>
       </c>
@@ -6073,7 +6447,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="23" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>11</v>
       </c>
@@ -6294,7 +6668,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="24" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>11</v>
       </c>
@@ -6515,7 +6889,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="25" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>11</v>
       </c>
@@ -6736,7 +7110,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="26" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>11</v>
       </c>
@@ -6957,7 +7331,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="27" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>11</v>
       </c>
@@ -7178,7 +7552,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="28" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
         <v>11</v>
       </c>
@@ -7399,7 +7773,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="29" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>11</v>
       </c>
@@ -7620,7 +7994,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="30" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
         <v>11</v>
       </c>
@@ -7841,7 +8215,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="31" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>11</v>
       </c>
@@ -8062,7 +8436,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="32" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
         <v>11</v>
       </c>
@@ -8283,7 +8657,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="33" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
         <v>11</v>
       </c>
@@ -8504,7 +8878,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="34" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
         <v>11</v>
       </c>
@@ -8725,7 +9099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>11</v>
       </c>
@@ -8946,7 +9320,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="36" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
         <v>11</v>
       </c>
@@ -9167,7 +9541,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="37" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
         <v>11</v>
       </c>
@@ -9388,7 +9762,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="38" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
         <v>11</v>
       </c>
@@ -9609,7 +9983,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="39" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>11</v>
       </c>
@@ -9830,7 +10204,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="40" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
         <v>11</v>
       </c>
@@ -10051,7 +10425,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="41" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
         <v>11</v>
       </c>
@@ -10272,7 +10646,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="42" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
         <v>11</v>
       </c>
@@ -10493,7 +10867,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="43" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
         <v>11</v>
       </c>
@@ -10714,7 +11088,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="10" t="s">
         <v>11</v>
       </c>
@@ -10935,7 +11309,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="45" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="10" t="s">
         <v>11</v>
       </c>
@@ -11156,7 +11530,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="46" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
         <v>11</v>
       </c>
@@ -11377,7 +11751,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="47" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="10" t="s">
         <v>11</v>
       </c>
@@ -11598,7 +11972,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="48" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
         <v>11</v>
       </c>
@@ -11819,7 +12193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="10" t="s">
         <v>11</v>
       </c>
@@ -12040,7 +12414,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="50" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
         <v>11</v>
       </c>
@@ -12261,7 +12635,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="51" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
         <v>11</v>
       </c>
@@ -12482,7 +12856,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="52" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
         <v>11</v>
       </c>
@@ -12703,7 +13077,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="53" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="10" t="s">
         <v>11</v>
       </c>
@@ -12924,7 +13298,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="54" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>11</v>
       </c>
@@ -13145,7 +13519,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="55" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
         <v>11</v>
       </c>
@@ -13366,7 +13740,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="56" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
         <v>11</v>
       </c>
@@ -13587,7 +13961,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="57" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="10" t="s">
         <v>11</v>
       </c>
@@ -13808,7 +14182,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
         <v>11</v>
       </c>
@@ -14029,7 +14403,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="59" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
         <v>11</v>
       </c>
@@ -14250,7 +14624,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="60" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
         <v>11</v>
       </c>
@@ -14471,7 +14845,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="61" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
         <v>11</v>
       </c>
@@ -14692,7 +15066,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="62" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="10" t="s">
         <v>11</v>
       </c>
@@ -14913,7 +15287,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
         <v>11</v>
       </c>
@@ -15134,7 +15508,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="64" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
         <v>11</v>
       </c>
@@ -15355,7 +15729,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="65" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
         <v>11</v>
       </c>
@@ -15576,7 +15950,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="66" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
         <v>11</v>
       </c>
@@ -15797,7 +16171,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="67" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
         <v>11</v>
       </c>
@@ -16018,7 +16392,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="68" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
         <v>11</v>
       </c>
@@ -16239,7 +16613,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="69" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="10" t="s">
         <v>11</v>
       </c>
@@ -16460,7 +16834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="10" t="s">
         <v>11</v>
       </c>
@@ -16681,7 +17055,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="71" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="10" t="s">
         <v>11</v>
       </c>
@@ -16902,7 +17276,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="72" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="10" t="s">
         <v>11</v>
       </c>
@@ -17123,7 +17497,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="73" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="10" t="s">
         <v>11</v>
       </c>
@@ -17344,7 +17718,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="74" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="10" t="s">
         <v>11</v>
       </c>
@@ -17565,7 +17939,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="75" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A75" s="10" t="s">
         <v>11</v>
       </c>
@@ -17786,7 +18160,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="76" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="10" t="s">
         <v>11</v>
       </c>
@@ -18007,7 +18381,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="77" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="10" t="s">
         <v>11</v>
       </c>
@@ -18228,7 +18602,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="10" t="s">
         <v>11</v>
       </c>
@@ -18449,7 +18823,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="79" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A79" s="10" t="s">
         <v>11</v>
       </c>
@@ -18670,7 +19044,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="80" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="10" t="s">
         <v>11</v>
       </c>
@@ -18891,7 +19265,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="81" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="10" t="s">
         <v>11</v>
       </c>
@@ -19112,7 +19486,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="82" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A82" s="10" t="s">
         <v>11</v>
       </c>
@@ -19333,7 +19707,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="83" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A83" s="10" t="s">
         <v>11</v>
       </c>
@@ -19554,7 +19928,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="84" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A84" s="10" t="s">
         <v>11</v>
       </c>
@@ -19775,7 +20149,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="85" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A85" s="10" t="s">
         <v>11</v>
       </c>
@@ -19996,7 +20370,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A86" s="10" t="s">
         <v>11</v>
       </c>
@@ -20217,7 +20591,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A87" s="10" t="s">
         <v>11</v>
       </c>
@@ -20438,7 +20812,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="88" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A88" s="10" t="s">
         <v>11</v>
       </c>
@@ -20659,7 +21033,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="89" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A89" s="10" t="s">
         <v>11</v>
       </c>
@@ -20880,7 +21254,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="90" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A90" s="10" t="s">
         <v>11</v>
       </c>
@@ -21101,7 +21475,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="91" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A91" s="10" t="s">
         <v>11</v>
       </c>
@@ -21322,7 +21696,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="92" spans="1:73" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:73" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
         <v>11</v>
       </c>
